--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf5-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf5-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +543,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J2">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.06871343597600001</v>
+        <v>0.091785378017</v>
       </c>
       <c r="R2">
-        <v>0.618420923784</v>
+        <v>0.8260684021529999</v>
       </c>
       <c r="S2">
-        <v>0.1189416527022219</v>
+        <v>0.1495145807039051</v>
       </c>
       <c r="T2">
-        <v>0.118941652702222</v>
+        <v>0.1495145807039051</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,7 +605,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J3">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
-        <v>0.3751476023510001</v>
+        <v>0.375147602351</v>
       </c>
       <c r="R3">
-        <v>3.376328421159001</v>
+        <v>3.376328421159</v>
       </c>
       <c r="S3">
-        <v>0.649373375048351</v>
+        <v>0.6110999124195622</v>
       </c>
       <c r="T3">
-        <v>0.6493733750483511</v>
+        <v>0.6110999124195622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,7 +667,7 @@
         <v>0.7825479339666589</v>
       </c>
       <c r="J4">
-        <v>0.7825479339666589</v>
+        <v>0.7825479339666588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.008166437941000002</v>
+        <v>0.013464701232</v>
       </c>
       <c r="R4">
-        <v>0.07349794146900002</v>
+        <v>0.121182311088</v>
       </c>
       <c r="S4">
-        <v>0.01413594898284425</v>
+        <v>0.02193344084319146</v>
       </c>
       <c r="T4">
-        <v>0.01413594898284425</v>
+        <v>0.02193344084319146</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +720,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.112551</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H5">
-        <v>0.337653</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I5">
-        <v>0.7825479339666589</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J5">
-        <v>0.7825479339666589</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>5.6012881E-05</v>
+        <v>0.02550504475844445</v>
       </c>
       <c r="R5">
-        <v>0.000504115929</v>
+        <v>0.229545402826</v>
       </c>
       <c r="S5">
-        <v>9.695723324154333E-05</v>
+        <v>0.04154666195509771</v>
       </c>
       <c r="T5">
-        <v>9.695723324154333E-05</v>
+        <v>0.04154666195509771</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H6">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I6">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J6">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>0.01909388290311111</v>
+        <v>0.1042448873197778</v>
       </c>
       <c r="R6">
-        <v>0.171844946128</v>
+        <v>0.9382039858780001</v>
       </c>
       <c r="S6">
-        <v>0.0330511486835262</v>
+        <v>0.1698106055112137</v>
       </c>
       <c r="T6">
-        <v>0.0330511486835262</v>
+        <v>0.1698106055112138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.03127533333333333</v>
+        <v>0.03127533333333334</v>
       </c>
       <c r="H7">
-        <v>0.09382599999999999</v>
+        <v>0.09382600000000001</v>
       </c>
       <c r="I7">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="J7">
-        <v>0.2174520660333411</v>
+        <v>0.2174520660333412</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>0.1042448873197778</v>
+        <v>0.003741530677333334</v>
       </c>
       <c r="R7">
-        <v>0.938203985878</v>
+        <v>0.033673776096</v>
       </c>
       <c r="S7">
-        <v>0.1804459201822184</v>
+        <v>0.006094798567029707</v>
       </c>
       <c r="T7">
-        <v>0.1804459201822184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03127533333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.09382599999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.2174520660333411</v>
-      </c>
-      <c r="J8">
-        <v>0.2174520660333411</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.07255766666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.217673</v>
-      </c>
-      <c r="O8">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="P8">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="Q8">
-        <v>0.002269265210888889</v>
-      </c>
-      <c r="R8">
-        <v>0.020423386898</v>
-      </c>
-      <c r="S8">
-        <v>0.003928054983264902</v>
-      </c>
-      <c r="T8">
-        <v>0.003928054983264903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03127533333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.09382599999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.2174520660333411</v>
-      </c>
-      <c r="J9">
-        <v>0.2174520660333411</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.001493</v>
-      </c>
-      <c r="O9">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P9">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q9">
-        <v>1.556469088888889E-05</v>
-      </c>
-      <c r="R9">
-        <v>0.000140082218</v>
-      </c>
-      <c r="S9">
-        <v>2.69421843316098E-05</v>
-      </c>
-      <c r="T9">
-        <v>2.694218433160979E-05</v>
+        <v>0.006094798567029708</v>
       </c>
     </row>
   </sheetData>
